--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1747115.709441228</v>
+        <v>1797008.486092227</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6622003.214103239</v>
+        <v>6622003.214103241</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>75.08620022294134</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>114.0512913036181</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.1670833407776</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>3.749580224518652</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.99255156561412</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>80.83011447495538</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>50.29171516770226</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>181.4699833318898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.1960350243787</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>256.1576284219334</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>95.26133250429027</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14.87712803026138</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>122.3764210828385</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="T13" t="n">
-        <v>99.78974769572881</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.5776448816356</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>367.3079905720035</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1688,19 +1688,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827553</v>
+        <v>16.54701024306499</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>187.0063306053102</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>9.157260519343172</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>158.252581986138</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>334.4300379834058</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>319.3912225700337</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>51.61557507397504</v>
+        <v>21.79585420586362</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>116.0486542774903</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>35.85275176271213</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>53.96864153531342</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>89.45393659605627</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>195.4338814895102</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="S22" t="n">
-        <v>20.20113705803946</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>230.2007569232755</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>86.65804289016209</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69.45144724598386</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>102.0781899497021</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>73.36175976093777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>46.00897025967765</v>
       </c>
       <c r="D26" t="n">
-        <v>104.1189927826352</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>88.00880902957773</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0.5439382344022646</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>38.97640474817486</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>362.9555275690607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>257.9648699330302</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>61.44191621213847</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2888,7 +2888,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>32.35050495445849</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.64439241526546</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>347.8043572311547</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>74.45877349636943</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>100.9628783521035</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>80.58358449827553</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>87.12443091033816</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>38.97640474817485</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>161.7478476689918</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>158.4267777054075</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>88.00880902957773</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>114.1942888468236</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>94.22288120179373</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9.637108967925645</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>30.15743961067284</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>14.36404151543402</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>101.8113024380652</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>210.0413482549995</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>157.7727335375554</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.7727335375555</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>17.95817021688007</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>220.3408895985023</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>140.514979870707</v>
+        <v>203.0866801262987</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>43.50864318698262</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>51.12248649571896</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>180.9721846179143</v>
+        <v>140.9445834237646</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4315,16 +4315,16 @@
         <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N3" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>851.8101010141643</v>
-      </c>
-      <c r="O3" t="n">
-        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>463.038884200274</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>227.8867759685313</v>
+        <v>960.2697007383952</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8867759685313</v>
+        <v>716.820924094295</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4530,10 +4530,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>761.6974622895962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>308.7395386897029</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>293.2822280683544</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4600,19 +4600,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,16 +4655,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>655.0361258579891</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>447.2758270930352</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4761,16 +4761,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4837,19 +4837,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>104.5536560184564</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>104.5536560184564</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X8" t="n">
-        <v>104.5536560184564</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>511.3692755768984</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
-        <v>511.3692755768984</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>362.4348659156472</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
         <v>362.4348659156472</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4928,7 +4928,7 @@
         <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>679.5846125969665</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C11" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D11" t="n">
-        <v>418.2475783579964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E11" t="n">
         <v>32.45932575975218</v>
@@ -5041,16 +5041,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5071,22 +5071,22 @@
         <v>1425.397688154633</v>
       </c>
       <c r="T11" t="n">
-        <v>1425.397688154633</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U11" t="n">
-        <v>1425.397688154633</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V11" t="n">
-        <v>1166.652608940559</v>
+        <v>871.5908811918299</v>
       </c>
       <c r="W11" t="n">
-        <v>1166.652608940559</v>
+        <v>518.8222259217157</v>
       </c>
       <c r="X11" t="n">
-        <v>1166.652608940559</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y11" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>515.0842197075859</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C12" t="n">
-        <v>340.6311904264589</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D12" t="n">
         <v>191.6967807652077</v>
@@ -5120,22 +5120,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M12" t="n">
-        <v>758.3581127497703</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N12" t="n">
-        <v>1160.042269026703</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O12" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
         <v>1622.966287987609</v>
@@ -5144,28 +5144,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1607.93888593684</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1440.436650895006</v>
+        <v>1499.353741439287</v>
       </c>
       <c r="T12" t="n">
-        <v>1440.436650895006</v>
+        <v>1499.353741439287</v>
       </c>
       <c r="U12" t="n">
-        <v>1212.233983432484</v>
+        <v>1271.151073976766</v>
       </c>
       <c r="V12" t="n">
-        <v>977.0818752007415</v>
+        <v>1035.998965745023</v>
       </c>
       <c r="W12" t="n">
-        <v>722.8445184725399</v>
+        <v>781.7616090168215</v>
       </c>
       <c r="X12" t="n">
-        <v>722.8445184725399</v>
+        <v>573.9101088112886</v>
       </c>
       <c r="Y12" t="n">
-        <v>515.0842197075859</v>
+        <v>366.1498100463347</v>
       </c>
     </row>
     <row r="13">
@@ -5226,19 +5226,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T13" t="n">
-        <v>260.4488766577695</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U13" t="n">
-        <v>260.4488766577695</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V13" t="n">
-        <v>260.4488766577695</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W13" t="n">
-        <v>260.4488766577695</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
         <v>32.45932575975218</v>
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.45932575975218</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975218</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1377.074034222627</v>
       </c>
       <c r="T14" t="n">
-        <v>1400.222368368377</v>
+        <v>1154.330114603394</v>
       </c>
       <c r="U14" t="n">
-        <v>1146.385485300631</v>
+        <v>1154.330114603394</v>
       </c>
       <c r="V14" t="n">
-        <v>1146.385485300631</v>
+        <v>1154.330114603394</v>
       </c>
       <c r="W14" t="n">
-        <v>793.6168300305169</v>
+        <v>1154.330114603394</v>
       </c>
       <c r="X14" t="n">
-        <v>422.5986577355639</v>
+        <v>780.8643563423144</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.45932575975218</v>
+        <v>390.7250243665027</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>319.8061086618332</v>
+        <v>512.6843680194497</v>
       </c>
       <c r="C15" t="n">
-        <v>319.8061086618332</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="D15" t="n">
-        <v>170.8716990005819</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E15" t="n">
-        <v>170.8716990005819</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F15" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L15" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1606.252136226938</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1606.252136226938</v>
       </c>
       <c r="T15" t="n">
-        <v>1185.171209406799</v>
+        <v>1606.252136226938</v>
       </c>
       <c r="U15" t="n">
-        <v>1185.171209406799</v>
+        <v>1378.049468764416</v>
       </c>
       <c r="V15" t="n">
-        <v>950.0191011750567</v>
+        <v>1142.897360532673</v>
       </c>
       <c r="W15" t="n">
-        <v>695.7817444468551</v>
+        <v>888.6600038044717</v>
       </c>
       <c r="X15" t="n">
-        <v>695.7817444468551</v>
+        <v>888.6600038044717</v>
       </c>
       <c r="Y15" t="n">
-        <v>488.0214456819012</v>
+        <v>680.8997050395178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201.3955086876591</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975218</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975218</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975218</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>361.24660160295</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="V16" t="n">
-        <v>361.24660160295</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="W16" t="n">
-        <v>361.24660160295</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="X16" t="n">
-        <v>201.3955086876591</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.3955086876591</v>
+        <v>351.9968435026035</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1508.970645214177</v>
+        <v>896.7318744564152</v>
       </c>
       <c r="C17" t="n">
-        <v>1508.970645214177</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="D17" t="n">
-        <v>1150.704946607427</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="E17" t="n">
-        <v>764.9166940091825</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="F17" t="n">
-        <v>442.2992974737949</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W17" t="n">
-        <v>1508.970645214177</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X17" t="n">
-        <v>1508.970645214177</v>
+        <v>896.7318744564152</v>
       </c>
       <c r="Y17" t="n">
-        <v>1508.970645214177</v>
+        <v>896.7318744564152</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>504.5621832871644</v>
+        <v>681.4882208202274</v>
       </c>
       <c r="C18" t="n">
-        <v>330.1091540060374</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D18" t="n">
-        <v>330.1091540060374</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E18" t="n">
-        <v>170.8716990005819</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
-        <v>170.8716990005819</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
@@ -5597,19 +5597,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>905.36650176277</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P18" t="n">
         <v>1622.966287987609</v>
@@ -5618,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U18" t="n">
-        <v>1394.763620525087</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V18" t="n">
-        <v>1342.626676005921</v>
+        <v>1519.552713538984</v>
       </c>
       <c r="W18" t="n">
-        <v>1088.389319277719</v>
+        <v>1265.315356810782</v>
       </c>
       <c r="X18" t="n">
-        <v>880.5378190721863</v>
+        <v>1057.463856605249</v>
       </c>
       <c r="Y18" t="n">
-        <v>672.7775203072324</v>
+        <v>849.7035578402954</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>149.6801886663081</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
         <v>32.45932575975218</v>
@@ -5682,43 +5682,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M19" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N19" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O19" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P19" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642184</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>296.5701361642184</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>296.5701361642184</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>815.3225979570603</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C20" t="n">
-        <v>815.3225979570603</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D20" t="n">
-        <v>815.3225979570603</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E20" t="n">
-        <v>815.3225979570603</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F20" t="n">
-        <v>815.3225979570603</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>405.4826262430176</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>68.67422653016848</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
@@ -5782,22 +5782,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1146.385485300631</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>815.3225979570603</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="W20" t="n">
-        <v>815.3225979570603</v>
+        <v>1568.45250865901</v>
       </c>
       <c r="X20" t="n">
-        <v>815.3225979570603</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="Y20" t="n">
-        <v>815.3225979570603</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>191.6967807652077</v>
+        <v>466.3406666349482</v>
       </c>
       <c r="C21" t="n">
-        <v>191.6967807652077</v>
+        <v>466.3406666349482</v>
       </c>
       <c r="D21" t="n">
-        <v>191.6967807652077</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G21" t="n">
         <v>32.45932575975218</v>
@@ -5831,25 +5831,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L21" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5858,25 +5858,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1532.608776274421</v>
       </c>
       <c r="T21" t="n">
-        <v>1254.561044051268</v>
+        <v>1331.705767379914</v>
       </c>
       <c r="U21" t="n">
-        <v>1057.153082950753</v>
+        <v>1331.705767379914</v>
       </c>
       <c r="V21" t="n">
-        <v>822.0009747190102</v>
+        <v>1096.553659148172</v>
       </c>
       <c r="W21" t="n">
-        <v>567.7636179908086</v>
+        <v>842.31630241997</v>
       </c>
       <c r="X21" t="n">
-        <v>359.9121177852757</v>
+        <v>842.31630241997</v>
       </c>
       <c r="Y21" t="n">
-        <v>359.9121177852757</v>
+        <v>634.5560036550162</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
         <v>32.45932575975218</v>
@@ -5934,28 +5934,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>340.8414126554355</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>264.9853428539698</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C23" t="n">
-        <v>264.9853428539698</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D23" t="n">
-        <v>264.9853428539698</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E23" t="n">
-        <v>264.9853428539698</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F23" t="n">
         <v>32.45932575975218</v>
@@ -5992,13 +5992,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6016,25 +6016,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.397688154633</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="T23" t="n">
-        <v>1202.653768535401</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="U23" t="n">
-        <v>948.8168854676546</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="V23" t="n">
-        <v>617.753998124084</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="W23" t="n">
-        <v>264.9853428539698</v>
+        <v>1182.664256060766</v>
       </c>
       <c r="X23" t="n">
-        <v>264.9853428539698</v>
+        <v>809.1984977996857</v>
       </c>
       <c r="Y23" t="n">
-        <v>264.9853428539698</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>661.618777680701</v>
+        <v>614.8557412797012</v>
       </c>
       <c r="C24" t="n">
-        <v>487.165748399574</v>
+        <v>440.4027119985741</v>
       </c>
       <c r="D24" t="n">
-        <v>338.2313387383227</v>
+        <v>440.4027119985741</v>
       </c>
       <c r="E24" t="n">
-        <v>178.9938837328672</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H24" t="n">
         <v>32.45932575975218</v>
@@ -6068,22 +6068,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.042269026703</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O24" t="n">
-        <v>1483.055776201262</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6098,22 +6098,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1422.063279093102</v>
+        <v>1519.857005210132</v>
       </c>
       <c r="U24" t="n">
-        <v>1193.860611630581</v>
+        <v>1519.857005210132</v>
       </c>
       <c r="V24" t="n">
-        <v>1193.860611630581</v>
+        <v>1284.70489697839</v>
       </c>
       <c r="W24" t="n">
-        <v>939.6232549023791</v>
+        <v>1030.467540250188</v>
       </c>
       <c r="X24" t="n">
-        <v>731.7717546968463</v>
+        <v>822.6160400446552</v>
       </c>
       <c r="Y24" t="n">
-        <v>731.7717546968463</v>
+        <v>614.8557412797012</v>
       </c>
     </row>
     <row r="25">
@@ -6150,7 +6150,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191283</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6159,7 +6159,7 @@
         <v>187.2357570984439</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>270.9687512285708</v>
       </c>
       <c r="O25" t="n">
         <v>332.2934283710736</v>
@@ -6180,16 +6180,16 @@
         <v>361.24660160295</v>
       </c>
       <c r="U25" t="n">
-        <v>361.24660160295</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V25" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W25" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X25" t="n">
-        <v>253.2519049032823</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
         <v>32.45932575975218</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.5925424806035</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C26" t="n">
-        <v>137.6300255401918</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975218</v>
@@ -6226,16 +6226,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6265,13 +6265,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>1270.197632717495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X26" t="n">
-        <v>896.7318744564152</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.5925424806035</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>121.3571126583155</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C27" t="n">
         <v>32.45932575975218</v>
@@ -6305,52 +6305,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T27" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U27" t="n">
-        <v>1026.358376588747</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V27" t="n">
-        <v>791.2062683570039</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W27" t="n">
-        <v>536.9689116288023</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X27" t="n">
-        <v>329.1174114232695</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y27" t="n">
-        <v>121.3571126583155</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="28">
@@ -6414,7 +6414,7 @@
         <v>361.24660160295</v>
       </c>
       <c r="T28" t="n">
-        <v>321.8764957967128</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U28" t="n">
         <v>321.8764957967128</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>735.8894704918546</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C29" t="n">
-        <v>735.8894704918546</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="D29" t="n">
-        <v>735.8894704918546</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="E29" t="n">
-        <v>369.2677254726013</v>
+        <v>702.8698731637244</v>
       </c>
       <c r="F29" t="n">
-        <v>369.2677254726013</v>
+        <v>702.8698731637244</v>
       </c>
       <c r="G29" t="n">
-        <v>369.2677254726013</v>
+        <v>293.0299014496816</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975218</v>
@@ -6502,13 +6502,13 @@
         <v>1088.658125761969</v>
       </c>
       <c r="W29" t="n">
-        <v>735.8894704918546</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X29" t="n">
-        <v>735.8894704918546</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y29" t="n">
-        <v>735.8894704918546</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>651.0967412602795</v>
+        <v>489.7623565946564</v>
       </c>
       <c r="C30" t="n">
-        <v>476.6437119791524</v>
+        <v>489.7623565946564</v>
       </c>
       <c r="D30" t="n">
-        <v>476.6437119791524</v>
+        <v>489.7623565946564</v>
       </c>
       <c r="E30" t="n">
-        <v>317.4062569736969</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F30" t="n">
-        <v>170.8716990005819</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H30" t="n">
         <v>32.45932575975218</v>
@@ -6545,49 +6545,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M30" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N30" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>1173.163483952</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V30" t="n">
-        <v>938.0113757202573</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W30" t="n">
-        <v>683.7740189920557</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X30" t="n">
-        <v>651.0967412602795</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y30" t="n">
-        <v>651.0967412602795</v>
+        <v>489.7623565946564</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C31" t="n">
-        <v>327.2623668400556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D31" t="n">
-        <v>327.2623668400556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E31" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F31" t="n">
         <v>32.45932575975218</v>
@@ -6648,25 +6648,25 @@
         <v>361.24660160295</v>
       </c>
       <c r="S31" t="n">
-        <v>361.24660160295</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="T31" t="n">
-        <v>361.24660160295</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="U31" t="n">
-        <v>361.24660160295</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="V31" t="n">
-        <v>361.24660160295</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="W31" t="n">
-        <v>361.24660160295</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="X31" t="n">
-        <v>361.24660160295</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>493.4584606775615</v>
+        <v>793.6168300305169</v>
       </c>
       <c r="C32" t="n">
-        <v>493.4584606775615</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D32" t="n">
-        <v>493.4584606775615</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E32" t="n">
-        <v>107.6702080793173</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975218</v>
@@ -6700,16 +6700,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6730,22 +6730,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="W32" t="n">
-        <v>1270.197632717495</v>
+        <v>793.6168300305169</v>
       </c>
       <c r="X32" t="n">
-        <v>1270.197632717495</v>
+        <v>793.6168300305169</v>
       </c>
       <c r="Y32" t="n">
-        <v>880.0583007416833</v>
+        <v>793.6168300305169</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>614.8557412797012</v>
+        <v>442.6138958326241</v>
       </c>
       <c r="C33" t="n">
-        <v>440.4027119985741</v>
+        <v>442.6138958326241</v>
       </c>
       <c r="D33" t="n">
-        <v>440.4027119985741</v>
+        <v>293.6794861713728</v>
       </c>
       <c r="E33" t="n">
-        <v>281.1652569931186</v>
+        <v>134.4420311659173</v>
       </c>
       <c r="F33" t="n">
-        <v>281.1652569931186</v>
+        <v>134.4420311659173</v>
       </c>
       <c r="G33" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
         <v>32.45932575975218</v>
@@ -6782,19 +6782,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456783</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N33" t="n">
-        <v>1131.293373622612</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O33" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
         <v>1622.966287987609</v>
@@ -6806,25 +6806,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T33" t="n">
-        <v>1374.066492846507</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U33" t="n">
-        <v>1145.863825383985</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V33" t="n">
-        <v>910.7117171522423</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="W33" t="n">
-        <v>822.707241485234</v>
+        <v>858.2256948031109</v>
       </c>
       <c r="X33" t="n">
-        <v>614.8557412797012</v>
+        <v>650.374194597578</v>
       </c>
       <c r="Y33" t="n">
-        <v>614.8557412797012</v>
+        <v>442.6138958326241</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
         <v>32.45932575975218</v>
@@ -6894,16 +6894,16 @@
         <v>361.24660160295</v>
       </c>
       <c r="V34" t="n">
-        <v>361.24660160295</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W34" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X34" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>779.107697186644</v>
+        <v>918.4376423829585</v>
       </c>
       <c r="C35" t="n">
-        <v>779.107697186644</v>
+        <v>918.4376423829585</v>
       </c>
       <c r="D35" t="n">
-        <v>779.107697186644</v>
+        <v>918.4376423829585</v>
       </c>
       <c r="E35" t="n">
-        <v>779.107697186644</v>
+        <v>532.6493897847142</v>
       </c>
       <c r="F35" t="n">
-        <v>779.107697186644</v>
+        <v>532.6493897847142</v>
       </c>
       <c r="G35" t="n">
-        <v>369.2677254726013</v>
+        <v>532.6493897847142</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>195.8409900718651</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6970,19 +6970,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1462.939239800329</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1131.876352456758</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W35" t="n">
-        <v>779.107697186644</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="X35" t="n">
-        <v>779.107697186644</v>
+        <v>918.4376423829585</v>
       </c>
       <c r="Y35" t="n">
-        <v>779.107697186644</v>
+        <v>918.4376423829585</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>206.9123550408792</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="D36" t="n">
         <v>32.45932575975218</v>
@@ -7022,16 +7022,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456783</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N36" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O36" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
         <v>1622.966287987609</v>
@@ -7046,22 +7046,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1340.116286433832</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U36" t="n">
-        <v>1111.91361897131</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V36" t="n">
-        <v>876.7615107395675</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W36" t="n">
-        <v>622.5241540113659</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X36" t="n">
-        <v>414.6726538058331</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y36" t="n">
-        <v>206.9123550408792</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="C37" t="n">
-        <v>127.6339532363115</v>
+        <v>192.3104186750431</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>42.19377926270738</v>
       </c>
       <c r="E37" t="n">
         <v>32.45932575975218</v>
@@ -7116,31 +7116,31 @@
         <v>361.24660160295</v>
       </c>
       <c r="Q37" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R37" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S37" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T37" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U37" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V37" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W37" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="X37" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Y37" t="n">
-        <v>296.5701361642184</v>
+        <v>361.24660160295</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>472.7613576865958</v>
+        <v>779.107697186644</v>
       </c>
       <c r="C38" t="n">
-        <v>442.2992974737949</v>
+        <v>779.107697186644</v>
       </c>
       <c r="D38" t="n">
-        <v>442.2992974737949</v>
+        <v>779.107697186644</v>
       </c>
       <c r="E38" t="n">
-        <v>442.2992974737949</v>
+        <v>779.107697186644</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975218</v>
@@ -7174,13 +7174,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
         <v>838.8947028941454</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1608.457155143736</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1608.457155143736</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1385.713235524504</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1131.876352456758</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>1131.876352456758</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.966287987609</v>
+        <v>779.107697186644</v>
       </c>
       <c r="X38" t="n">
-        <v>1249.500529726529</v>
+        <v>779.107697186644</v>
       </c>
       <c r="Y38" t="n">
-        <v>859.3611977507176</v>
+        <v>779.107697186644</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>661.618777680701</v>
+        <v>740.9541542535677</v>
       </c>
       <c r="C39" t="n">
-        <v>487.165748399574</v>
+        <v>566.5011249724407</v>
       </c>
       <c r="D39" t="n">
-        <v>338.2313387383227</v>
+        <v>417.5667153111894</v>
       </c>
       <c r="E39" t="n">
-        <v>178.9938837328672</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975218</v>
@@ -7256,19 +7256,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>656.0248753321102</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P39" t="n">
         <v>1622.966287987609</v>
@@ -7280,25 +7280,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1520.12658855522</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1319.223579660713</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U39" t="n">
-        <v>1319.223579660713</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V39" t="n">
-        <v>1084.071471428971</v>
+        <v>1410.803309952256</v>
       </c>
       <c r="W39" t="n">
-        <v>829.8341147007691</v>
+        <v>1156.565953224055</v>
       </c>
       <c r="X39" t="n">
-        <v>829.8341147007691</v>
+        <v>948.7144530185217</v>
       </c>
       <c r="Y39" t="n">
-        <v>829.8341147007691</v>
+        <v>740.9541542535677</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.24660160295</v>
       </c>
       <c r="C40" t="n">
         <v>201.8802040902677</v>
@@ -7341,43 +7341,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N40" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.24660160295</v>
       </c>
       <c r="V40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.24660160295</v>
       </c>
       <c r="W40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.24660160295</v>
       </c>
       <c r="X40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.24660160295</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>828.0875500720392</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C41" t="n">
-        <v>828.0875500720392</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D41" t="n">
-        <v>828.0875500720392</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E41" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7435,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S41" t="n">
-        <v>1604.826722111973</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T41" t="n">
-        <v>1604.826722111973</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U41" t="n">
-        <v>1604.826722111973</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V41" t="n">
-        <v>1604.826722111973</v>
+        <v>612.2546875442204</v>
       </c>
       <c r="W41" t="n">
-        <v>1604.826722111973</v>
+        <v>612.2546875442204</v>
       </c>
       <c r="X41" t="n">
-        <v>1604.826722111973</v>
+        <v>612.2546875442204</v>
       </c>
       <c r="Y41" t="n">
-        <v>1214.687390136161</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>206.9123550408792</v>
+        <v>345.324728281709</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G42" t="n">
         <v>32.45932575975218</v>
@@ -7490,22 +7490,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>201.1187329501917</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L42" t="n">
-        <v>498.8504879318549</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>898.2686245361178</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N42" t="n">
-        <v>1299.952780813051</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.966287987609</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P42" t="n">
         <v>1622.966287987609</v>
@@ -7517,25 +7517,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1422.063279093102</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U42" t="n">
-        <v>1280.128955991378</v>
+        <v>1250.32599221214</v>
       </c>
       <c r="V42" t="n">
-        <v>1044.976847759636</v>
+        <v>1015.173883980397</v>
       </c>
       <c r="W42" t="n">
-        <v>790.739491031434</v>
+        <v>760.9365272521957</v>
       </c>
       <c r="X42" t="n">
-        <v>582.8879908259012</v>
+        <v>553.0850270466628</v>
       </c>
       <c r="Y42" t="n">
-        <v>375.1276920609472</v>
+        <v>345.324728281709</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
         <v>32.45932575975218</v>
@@ -7593,28 +7593,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="T43" t="n">
-        <v>132.1392625228377</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="U43" t="n">
-        <v>132.1392625228377</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="V43" t="n">
-        <v>132.1392625228377</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="W43" t="n">
-        <v>132.1392625228377</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="X43" t="n">
-        <v>132.1392625228377</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>811.2618144142066</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C44" t="n">
+        <v>852.1392691878377</v>
+      </c>
+      <c r="D44" t="n">
+        <v>852.1392691878377</v>
+      </c>
+      <c r="E44" t="n">
+        <v>852.1392691878377</v>
+      </c>
+      <c r="F44" t="n">
         <v>442.2992974737949</v>
-      </c>
-      <c r="D44" t="n">
-        <v>442.2992974737949</v>
-      </c>
-      <c r="E44" t="n">
-        <v>442.2992974737949</v>
-      </c>
-      <c r="F44" t="n">
-        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1465.022520782882</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="U44" t="n">
-        <v>1571.327412739408</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="V44" t="n">
-        <v>1571.327412739408</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="W44" t="n">
-        <v>1571.327412739408</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X44" t="n">
-        <v>1197.861654478328</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y44" t="n">
-        <v>1197.861654478328</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="45">
@@ -7727,52 +7727,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>1358.768541405599</v>
+        <v>1480.598021902998</v>
       </c>
       <c r="V45" t="n">
-        <v>1123.616433173856</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="W45" t="n">
-        <v>869.3790764456548</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="X45" t="n">
-        <v>869.3790764456548</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.618777680701</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C46" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D46" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E46" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F46" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G46" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975218</v>
@@ -7830,28 +7830,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029501</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X46" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8303,7 +8303,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>63.84875129258627</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344739</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>203.2271928126415</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q18" t="n">
         <v>99.73813450275543</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>63.84875129258624</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K24" t="n">
         <v>86.93262649026377</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>215.0958621574522</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q24" t="n">
         <v>99.73813450275543</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>63.84875129258627</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>97.05174705344739</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N30" t="n">
         <v>455.0874215304797</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>97.05174705344739</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10442,10 +10442,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.0020905588914</v>
       </c>
       <c r="P33" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275543</v>
@@ -10670,7 +10670,7 @@
         <v>86.93262649026377</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>99.73813450275543</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>213.8448350321618</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>455.0874215304797</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q39" t="n">
         <v>99.73813450275543</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>257.2956640563643</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>73.77211287831324</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q42" t="n">
         <v>99.73813450275543</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>71.59463004820151</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>274.4697681741787</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>65.70645646801414</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>43.45079160857729</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="T13" t="n">
-        <v>127.0265179935825</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.3046124576955</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>65.01526895301092</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>2.423110106465572</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23576,19 +23576,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
         <v>109.1906224126114</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>64.03657425521052</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>11.88764820025142</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>159.8772180037952</v>
@@ -23709,7 +23709,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3046124576955</v>
+        <v>277.1473519383523</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>67.45707340289914</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>30.84285378760171</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>87.48482317167776</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23819,19 +23819,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -23867,10 +23867,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>181.1850120754502</v>
+        <v>211.0047329435616</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>51.67801526972009</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>59.320056923945</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9067177478578</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>273.7836169348215</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,16 +24053,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24098,13 +24098,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>76.37327609535949</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>30.48675929838635</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
         <v>147.5019580580808</v>
@@ -24174,10 +24174,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>59.320056923945</v>
       </c>
       <c r="S22" t="n">
-        <v>199.2092618138139</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>176.675288818436</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.7135041305339</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>112.8556863456975</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>108.9348709444844</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.08173640388348</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>78.54202280713804</v>
@@ -24338,13 +24338,13 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>96.81578885585954</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24420,19 +24420,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>212.9428526967577</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>118.7949056563661</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>319.2639215113299</v>
       </c>
       <c r="D26" t="n">
-        <v>250.5640488380478</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>84.69968995873801</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.2832744570135</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>187.8398609411364</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24688,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>18.97484250320105</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>75.47544578269043</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>96.20316424326248</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24776,7 +24776,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>173.422480249019</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>133.6024286833624</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
@@ -24888,7 +24888,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>112.4956491391823</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>17.46853453985284</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>332.417272245342</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24970,10 +24970,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,10 +24998,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>36.06537115631795</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>164.5705522505814</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>109.6390682700375</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25134,7 +25134,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756532</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>26.01162184157815</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>92.87173653166087</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,10 +25235,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>59.43625653506102</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>84.69968995873803</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>54.39259181641863</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>136.7968536786435</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
         <v>165.4090611368575</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>335.1154521603347</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>98.49164483026343</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S39" t="n">
-        <v>64.01591025335053</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>22.75923889442578</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>9.474087561072395</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,7 +25599,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>61.63766533429788</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.7135041305339</v>
@@ -25648,7 +25648,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>177.6347436177665</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>107.4113688716326</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
@@ -25757,13 +25757,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>85.40566091718964</v>
+        <v>22.83396066159793</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>48.81882066262612</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
         <v>74.67247646141476</v>
@@ -25833,13 +25833,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>165.4090611368575</v>
+        <v>58.49431140418642</v>
       </c>
       <c r="S43" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,7 +25879,7 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>152.0842706476639</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>200.1760277413494</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
@@ -26000,16 +26000,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>44.94845616998225</v>
+        <v>84.976057364132</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>60.08747030806646</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26070,13 +26070,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R46" t="n">
-        <v>165.4090611368575</v>
+        <v>66.72592374140289</v>
       </c>
       <c r="S46" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>472115.5920391314</v>
+        <v>472115.5920391317</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>472115.5920391318</v>
+        <v>472115.5920391319</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>472115.5920391318</v>
+        <v>472115.592039132</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>472115.5920391315</v>
+        <v>472115.5920391317</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>472115.5920391318</v>
+        <v>472115.5920391317</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>472115.5920391314</v>
+        <v>472115.5920391313</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>472115.5920391319</v>
+        <v>472115.5920391318</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>472115.5920391319</v>
+        <v>472115.5920391318</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>472115.5920391315</v>
+        <v>472115.5920391317</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>309761.9007436795</v>
+        <v>309761.9007436796</v>
       </c>
       <c r="F2" t="n">
-        <v>309761.9007436795</v>
+        <v>309761.9007436796</v>
       </c>
       <c r="G2" t="n">
-        <v>309761.9007436795</v>
+        <v>309761.9007436796</v>
       </c>
       <c r="H2" t="n">
-        <v>309761.9007436794</v>
+        <v>309761.9007436796</v>
       </c>
       <c r="I2" t="n">
         <v>309761.9007436794</v>
       </c>
       <c r="J2" t="n">
+        <v>309761.9007436795</v>
+      </c>
+      <c r="K2" t="n">
+        <v>309761.9007436795</v>
+      </c>
+      <c r="L2" t="n">
         <v>309761.9007436794</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>309761.9007436794</v>
+      </c>
+      <c r="N2" t="n">
         <v>309761.9007436796</v>
-      </c>
-      <c r="L2" t="n">
-        <v>309761.9007436796</v>
-      </c>
-      <c r="M2" t="n">
-        <v>309761.9007436795</v>
-      </c>
-      <c r="N2" t="n">
-        <v>309761.9007436795</v>
       </c>
       <c r="O2" t="n">
         <v>309761.9007436794</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>34482.31175973668</v>
       </c>
       <c r="O4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="P4" t="n">
         <v>34482.31175973668</v>
@@ -26481,7 +26481,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153609.2084375786</v>
+        <v>153609.2084375788</v>
       </c>
       <c r="C6" t="n">
-        <v>234378.6399691265</v>
+        <v>234378.6399691266</v>
       </c>
       <c r="D6" t="n">
-        <v>234378.6399691263</v>
+        <v>234378.6399691266</v>
       </c>
       <c r="E6" t="n">
-        <v>70630.46655156174</v>
+        <v>79490.60600560092</v>
       </c>
       <c r="F6" t="n">
-        <v>237570.6366768085</v>
+        <v>246430.7761308477</v>
       </c>
       <c r="G6" t="n">
-        <v>237570.6366768085</v>
+        <v>246430.7761308476</v>
       </c>
       <c r="H6" t="n">
-        <v>237570.6366768084</v>
+        <v>246430.7761308476</v>
       </c>
       <c r="I6" t="n">
-        <v>237570.6366768084</v>
+        <v>246430.7761308475</v>
       </c>
       <c r="J6" t="n">
-        <v>174510.6940777022</v>
+        <v>183370.8335317413</v>
       </c>
       <c r="K6" t="n">
-        <v>237570.6366768086</v>
+        <v>246430.7761308476</v>
       </c>
       <c r="L6" t="n">
-        <v>237570.6366768086</v>
+        <v>246430.7761308475</v>
       </c>
       <c r="M6" t="n">
-        <v>196519.9388143606</v>
+        <v>205380.0782683996</v>
       </c>
       <c r="N6" t="n">
-        <v>237570.6366768085</v>
+        <v>246430.7761308476</v>
       </c>
       <c r="O6" t="n">
-        <v>237570.6366768084</v>
+        <v>246430.7761308475</v>
       </c>
       <c r="P6" t="n">
-        <v>237570.6366768084</v>
+        <v>246430.7761308475</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>331.7898455187701</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>301.251446211517</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>1.774298740197196</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>229.0510069249066</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>208.1513597462248</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>314.2067624875478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>290.6389069322254</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.54063208425322</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>237.3007884161221</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>268.4108542424576</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.9462234883513</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>24.21271244541452</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28031,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>47.2544399028796</v>
+        <v>44.5329991677731</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31934,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31943,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629218</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044657</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100587</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172068</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I17" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K17" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438473</v>
@@ -32250,25 +32250,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R17" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,7 +32308,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
         <v>10.85461004427703</v>
@@ -32317,22 +32317,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P18" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
         <v>40.24363958326609</v>
@@ -32341,7 +32341,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32384,34 +32384,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q19" t="n">
         <v>22.13234246735009</v>
@@ -32420,7 +32420,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011532</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046561</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629217</v>
       </c>
       <c r="K23" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645899</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044657</v>
+        <v>92.98544734044656</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438473</v>
@@ -32724,25 +32724,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971763</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737664</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134782</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545222</v>
       </c>
       <c r="S23" t="n">
         <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091549</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809224</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891927</v>
       </c>
       <c r="H24" t="n">
         <v>3.044821823885099</v>
@@ -32788,40 +32788,40 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321931</v>
+        <v>29.7858796132193</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409521</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253942</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864763</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975587</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100586</v>
       </c>
       <c r="P24" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601699</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326608</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422063</v>
       </c>
       <c r="T24" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259947</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823637</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32870,16 +32870,16 @@
         <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412593</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323127</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141107</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039454</v>
       </c>
       <c r="O25" t="n">
         <v>37.35899041172068</v>
@@ -32888,16 +32888,16 @@
         <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735009</v>
+        <v>22.13234246735008</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118889</v>
+        <v>4.606199165118888</v>
       </c>
       <c r="T25" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970202</v>
       </c>
       <c r="U25" t="n">
         <v>0.01441689879536431</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I38" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L38" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438473</v>
@@ -33909,25 +33909,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R38" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S38" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T38" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,7 +33967,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H39" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427703</v>
@@ -33976,22 +33976,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q39" t="n">
         <v>40.24363958326609</v>
@@ -34000,7 +34000,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
@@ -34043,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O40" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q40" t="n">
         <v>22.13234246735009</v>
@@ -34079,7 +34079,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S40" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="P3" t="n">
         <v>43.28534947792182</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35023,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35506,7 +35506,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35658,7 +35658,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35746,7 +35746,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726432</v>
@@ -35895,7 +35895,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N17" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O17" t="n">
         <v>249.9811662707763</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
@@ -35974,13 +35974,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,16 +36044,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M19" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O19" t="n">
         <v>61.94411832576036</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36211,7 +36211,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>14.50290175900885</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36220,7 +36220,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167965</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726432</v>
@@ -36375,10 +36375,10 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P23" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680302</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>141.323749279139</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243077</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325165</v>
       </c>
       <c r="N25" t="n">
         <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576035</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714789</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>177.5326105223148</v>
@@ -36685,7 +36685,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>14.50290175900885</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36694,7 +36694,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366292</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N30" t="n">
         <v>405.7415719969023</v>
@@ -36928,10 +36928,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37162,10 +37162,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
-        <v>326.276269873291</v>
+        <v>74.41604115545286</v>
       </c>
       <c r="P33" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366292</v>
@@ -37402,7 +37402,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726432</v>
@@ -37554,7 +37554,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O38" t="n">
         <v>249.9811662707763</v>
@@ -37563,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>151.5924345187911</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
         <v>405.7415719969023</v>
@@ -37639,7 +37639,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O40" t="n">
         <v>61.94411832576036</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726432</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>170.3630375661006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37876,7 +37876,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P44" t="n">
         <v>175.2982096635898</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38107,16 +38107,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
